--- a/biology/Zoologie/Egernia_cunninghami/Egernia_cunninghami.xlsx
+++ b/biology/Zoologie/Egernia_cunninghami/Egernia_cunninghami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Egernia cunninghami est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egernia cunninghami est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au-dessus de 1 000 m d'altitude au Queensland, en Australie-Méridionale, au Victoria et en Nouvelle-Galles du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au-dessus de 1 000 m d'altitude au Queensland, en Australie-Méridionale, au Victoria et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Egernia cunninghami peut atteindre jusqu'à 30 cm de longueur et peut être confondu avec des lézards à langue bleue. Il a une excroissance acérée caractéristique sur chaque écaille, ce qui lui donne un aspect légèrement épineux. Il aime vivre sur les affleurements rocheux dans les forêts et est omnivore diurne. Il y a actuellement des recherches en cours sur la population isolée qui habite le sud de la chaîne du Mont-Lofty en Australie-Méridionale. Cette population est considérée comme vulnérable en raison de la fragmentation des « colonies ». Il existe des preuves qu'au moins une de ces colonies a totalement disparu. Il est plus abondant dans les habitats appropriés du long de la côte sud-est des collines.
 Comme certaines autres espèces de reptiles, il est vivipare. Il donne naissance à six jeunes ou plus sur une litière.
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Allan Cunningham[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Allan Cunningham.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1832 : Three new animals brought from New Holland by Mr Cunningham. Proceedings of the Committee of Science and Correspondence of the Zoological Society of London, vol. 1832, p. 39-40 (texte intégral).</t>
         </is>
